--- a/RXL_WbInfo.xlsx
+++ b/RXL_WbInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USBC Backup\_RXL\Development\LAMBDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\_RXL\Development\LAMBDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D777F374-014D-428D-A8CC-E5DAFB5F5458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABE5A68-E007-41F9-89ED-90B1174CA453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C29E0D24-0EA8-4D41-8E06-9F040E158B6C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C29E0D24-0EA8-4D41-8E06-9F040E158B6C}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetName" sheetId="11" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="186">
   <si>
     <t>)</t>
   </si>
@@ -627,6 +627,9 @@
   </si>
   <si>
     <t>https://gist.github.com/r-silk/265d9ad1e36e70f112a71b7ad0def48f</t>
+  </si>
+  <si>
+    <t>Workbook Information Module</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1779,7 @@
     <cellStyle name="Output - SubTotal" xfId="68" xr:uid="{3944BA35-D861-48C8-BF5E-3B5A261E1A76}"/>
     <cellStyle name="Output - Text" xfId="69" xr:uid="{D8AED5B9-3D8F-49BF-8E7D-B2C435B0B345}"/>
     <cellStyle name="Output - Total" xfId="70" xr:uid="{4535EB24-0E67-4CEB-99CB-25A662CC9E57}"/>
-    <cellStyle name="Per cent" xfId="5" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Ref.In - #" xfId="78" xr:uid="{7AC7FA44-CE33-4D97-A9FF-6DB2BE2FBF7C}"/>
     <cellStyle name="Ref.In - %" xfId="79" xr:uid="{BE627C07-1DF5-42CE-90A7-95B617354C42}"/>
     <cellStyle name="Ref.In - Date" xfId="80" xr:uid="{70FB18BE-2731-4B77-8479-BF1A1A35C14E}"/>
@@ -2407,18 +2410,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.33203125" customWidth="1"/>
+    <col min="1" max="2" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="18" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="19">
         <f xml:space="preserve"> MAX(B$1:B1) + 1</f>
         <v>1</v>
@@ -2427,35 +2430,35 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="C11" ca="1" xml:space="preserve"> CELL("filename", $C$1)</f>
-        <v>D:\USBC Backup\_RXL\Development\LAMBDA\[RXL_WbInfo.xlsx]SheetName</v>
+        <v>E:\Work\_RXL\Development\LAMBDA\[RXL_WbInfo.xlsx]SheetName</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -2468,18 +2471,18 @@
       <c r="L11" s="12"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(C11)</f>
         <v>= CELL("filename", $C$1)</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C15" ca="1" xml:space="preserve"> _xlfn.LET(
   _xlpm._fileName, CELL("filename", $C$1),
@@ -2493,7 +2496,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C16" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(C15)</f>
         <v>= LET(
@@ -2504,12 +2507,12 @@
 )</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C19" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C19" ca="1" xml:space="preserve"> _xlfn.LET(
   _xlpm._fileName, CELL("filename", $C$1),
@@ -2523,7 +2526,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C20" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(C19)</f>
         <v>= LET(
@@ -2534,7 +2537,7 @@
 )</v>
       </c>
     </row>
-    <row r="23" spans="2:23" s="18" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:23" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="19">
         <f xml:space="preserve"> MAX(B$1:B22) + 1</f>
         <v>2</v>
@@ -2543,7 +2546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B25" s="21" t="s">
         <v>42</v>
       </c>
@@ -2569,7 +2572,7 @@
       <c r="V25" s="20"/>
       <c r="W25" s="20"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C27" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="C27" ca="1" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.cell_ref,
   _xlfn.LET(
@@ -2586,7 +2589,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C28" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(C27)</f>
         <v>= LAMBDA(cell_ref,
@@ -2600,110 +2603,110 @@
 )($C$1)</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C30" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C31" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C32" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C43" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C47" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C49" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C50" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B53" s="21" t="s">
         <v>34</v>
       </c>
@@ -2729,7 +2732,7 @@
       <c r="V53" s="20"/>
       <c r="W53" s="20"/>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C55" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="C55" ca="1" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.cell_ref,
   _xlfn.LET(
@@ -2747,7 +2750,7 @@
       <c r="E55" s="12"/>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C56" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(C55)</f>
         <v>= LAMBDA(cell_ref,
@@ -2762,139 +2765,139 @@
 )($C$1)</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B58" s="7"/>
       <c r="C58" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B59" s="7"/>
       <c r="C59" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B60" s="7"/>
       <c r="C60" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C61" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C62" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C63" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C64" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C79" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C82" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C83" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="86" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="9" t="s">
         <v>3</v>
       </c>
@@ -2915,18 +2918,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.33203125" customWidth="1"/>
+    <col min="1" max="2" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="18" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="19">
         <f xml:space="preserve"> MAX(B$1:B1) + 1</f>
         <v>1</v>
@@ -2935,40 +2938,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="C12" ca="1" xml:space="preserve"> CELL("filename", $A$1)</f>
-        <v>D:\USBC Backup\_RXL\Development\LAMBDA\[RXL_WbInfo.xlsx]WorkbookName</v>
+        <v>E:\Work\_RXL\Development\LAMBDA\[RXL_WbInfo.xlsx]WorkbookName</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -2981,18 +2984,18 @@
       <c r="L12" s="12"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(C12)</f>
         <v>= CELL("filename", $A$1)</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C16" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C16" ca="1" xml:space="preserve"> _xlfn.LET(
   _xlpm.cell_ref, $A$1,
@@ -3007,7 +3010,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C17" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(C16)</f>
         <v>= LET(
@@ -3019,7 +3022,7 @@
 )</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>60</v>
       </c>
@@ -3030,7 +3033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C20" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C20" ca="1" xml:space="preserve"> _xlfn.LET(
   _xlpm.cell_ref, $A$1,
@@ -3047,7 +3050,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C21" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(C20)</f>
         <v>= LET(
@@ -3061,12 +3064,12 @@
 )</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C25" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="C25" ca="1" xml:space="preserve"> _xlfn.LET(
   _xlpm.cell_ref, $A$1,
@@ -3084,7 +3087,7 @@
       <c r="E25" s="31"/>
       <c r="F25" s="32"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C26" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(C25)</f>
         <v>= LET(
@@ -3099,7 +3102,7 @@
 )</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>60</v>
       </c>
@@ -3110,7 +3113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C29" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="C29" ca="1" xml:space="preserve"> _xlfn.LET(
   _xlpm.cell_ref, $A$1,
@@ -3131,7 +3134,7 @@
       <c r="E29" s="31"/>
       <c r="F29" s="32"/>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C30" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(C29)</f>
         <v>= LET(
@@ -3149,7 +3152,7 @@
 )</v>
       </c>
     </row>
-    <row r="33" spans="2:23" s="18" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:23" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="19">
         <f xml:space="preserve"> MAX(B$1:B32) + 1</f>
         <v>2</v>
@@ -3158,7 +3161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>42</v>
       </c>
@@ -3184,7 +3187,7 @@
       <c r="V35" s="20"/>
       <c r="W35" s="20"/>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C37" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="C37" ca="1" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.cell_ref,_xlop.remove_extension,
   _xlfn.LET(
@@ -3219,7 +3222,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(C37)</f>
         <v>= LAMBDA(cell_ref,[remove_extension],
@@ -3251,215 +3254,215 @@
 )($A$1)</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="36" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" s="36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="36" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="36" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="36" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="36" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="36" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" s="36" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" s="36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" s="36" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C81" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B84" s="21" t="s">
         <v>34</v>
       </c>
@@ -3485,7 +3488,7 @@
       <c r="V84" s="20"/>
       <c r="W84" s="20"/>
     </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C86" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="C86" ca="1" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.cell_ref,_xlop.remove_extension,
   _xlfn.LET(
@@ -3512,7 +3515,7 @@
       <c r="E86" s="12"/>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C87" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(C86)</f>
         <v>= LAMBDA(cell_ref,[remove_extension],
@@ -3536,193 +3539,193 @@
 )($A$1)</v>
       </c>
     </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B89" s="7"/>
       <c r="C89" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B90" s="7"/>
       <c r="C90" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B91" s="7"/>
       <c r="C91" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B92" s="7"/>
       <c r="C92" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B93" s="7"/>
       <c r="C93" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B94" s="7"/>
       <c r="C94" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B95" s="7"/>
       <c r="C95" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B96" s="7"/>
       <c r="C96" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" s="7"/>
       <c r="C97" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" s="7"/>
       <c r="C98" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B99" s="7"/>
       <c r="C99" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B100" s="7"/>
       <c r="C100" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C101" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C102" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C103" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C104" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C105" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C106" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C107" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C108" s="16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C109" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C110" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C111" s="16" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C112" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C113" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C114" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C115" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C116" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C117" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C118" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C119" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C120" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C122" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C123" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="125" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="126" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126" s="9" t="s">
         <v>3</v>
       </c>
@@ -3748,18 +3751,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.33203125" customWidth="1"/>
+    <col min="1" max="2" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="C1" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="18" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="19">
         <f xml:space="preserve"> MAX(B$1:B1) + 1</f>
         <v>1</v>
@@ -3768,40 +3771,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="C12" ca="1" xml:space="preserve"> CELL("filename", $A$1)</f>
-        <v>D:\USBC Backup\_RXL\Development\LAMBDA\[RXL_WbInfo.xlsx]FilePath</v>
+        <v>E:\Work\_RXL\Development\LAMBDA\[RXL_WbInfo.xlsx]FilePath</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
@@ -3814,18 +3817,18 @@
       <c r="L12" s="31"/>
       <c r="M12" s="32"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(C12)</f>
         <v>= CELL("filename", $A$1)</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C16" s="37" t="str" cm="1">
         <f t="array" aca="1" ref="C16" ca="1" xml:space="preserve"> _xlfn.LET(
   _xlpm.cell_ref, $A$1,
@@ -3834,7 +3837,7 @@
   _xlpm._rtn, IF( OR( ISERROR(_xlpm._filePath), _xlpm._filePath = "#"), "#[Error reading File Path]", _xlpm._filePath),
   _xlpm._rtn
 )</f>
-        <v>D:\USBC Backup\_RXL\Development\LAMBDA\</v>
+        <v>E:\Work\_RXL\Development\LAMBDA\</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
@@ -3847,7 +3850,7 @@
       <c r="L16" s="31"/>
       <c r="M16" s="32"/>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(C16)</f>
         <v>= LET(
@@ -3859,12 +3862,12 @@
 )</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="37" t="str" cm="1">
         <f t="array" aca="1" ref="C20" ca="1" xml:space="preserve"> _xlfn.LET(
   _xlpm.cell_ref, $A$1,
@@ -3878,7 +3881,7 @@
   ),
   _xlpm._rtn
 )</f>
-        <v>D:\USBC Backup\_RXL\Development\LAMBDA\RXL_WbInfo.xlsx</v>
+        <v>E:\Work\_RXL\Development\LAMBDA\RXL_WbInfo.xlsx</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
@@ -3891,7 +3894,7 @@
       <c r="L20" s="31"/>
       <c r="M20" s="32"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(C20)</f>
         <v>= LET(
@@ -3908,7 +3911,7 @@
 )</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>117</v>
       </c>
@@ -3919,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>119</v>
       </c>
@@ -3930,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="37" t="str" cm="1">
         <f t="array" aca="1" ref="C25" ca="1" xml:space="preserve"> _xlfn.LET(
   _xlpm.cell_ref, $A$1,
@@ -3948,7 +3951,7 @@
   ),
   _xlpm._rtn
 )</f>
-        <v>D:\USBC Backup\_RXL\Development\LAMBDA\RXL_WbInfo.xlsx</v>
+        <v>E:\Work\_RXL\Development\LAMBDA\RXL_WbInfo.xlsx</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
@@ -3961,7 +3964,7 @@
       <c r="L25" s="31"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(C25)</f>
         <v>= LET(
@@ -3982,12 +3985,12 @@
 )</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="C30" ca="1" xml:space="preserve"> _xlfn.LET(
   _xlpm.cell_ref, $A$1,
@@ -4006,7 +4009,7 @@
   _xlpm._rtn, _xlpm._fPath &amp; _xlpm._wbName,
   IF( _xlpm._errChk &lt;&gt; "", _xlpm._errChk, _xlpm._rtn)
 )</f>
-        <v>D:\USBC Backup\_RXL\Development\LAMBDA\RXL_WbInfo.xlsx</v>
+        <v>E:\Work\_RXL\Development\LAMBDA\RXL_WbInfo.xlsx</v>
       </c>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
@@ -4019,7 +4022,7 @@
       <c r="L30" s="31"/>
       <c r="M30" s="32"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(C30)</f>
         <v>= LET(
@@ -4041,7 +4044,7 @@
 )</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>121</v>
       </c>
@@ -4052,7 +4055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="H34" s="34" t="s">
         <v>120</v>
       </c>
@@ -4060,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="C35" ca="1" xml:space="preserve"> _xlfn.LET(
   _xlpm.cell_ref, $A$1,
@@ -4082,7 +4085,7 @@
   _xlpm._rtn, IF(_xlpm.inc_file_name, _xlpm._fPath &amp; _xlpm._wbName, _xlpm._rPath),
   IF( _xlpm._errChk &lt;&gt; "", _xlpm._errChk, _xlpm._rtn)
 )</f>
-        <v>D:\USBC Backup\_RXL\Development\LAMBDA\RXL_WbInfo.xlsx</v>
+        <v>E:\Work\_RXL\Development\LAMBDA\RXL_WbInfo.xlsx</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
@@ -4095,7 +4098,7 @@
       <c r="L35" s="31"/>
       <c r="M35" s="32"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C36" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(C35)</f>
         <v>= LET(
@@ -4120,7 +4123,7 @@
 )</v>
       </c>
     </row>
-    <row r="39" spans="2:23" s="18" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:23" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="19">
         <f xml:space="preserve"> MAX(B$1:B38) + 1</f>
         <v>2</v>
@@ -4129,7 +4132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41" s="21" t="s">
         <v>42</v>
       </c>
@@ -4155,7 +4158,7 @@
       <c r="V41" s="20"/>
       <c r="W41" s="20"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="C43" ca="1" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.cell_ref,_xlop.remove_last_char,_xlop.inc_file_name,
   _xlfn.LET(
@@ -4193,7 +4196,7 @@
     IF(_xlpm._errChk &lt;&gt; "", _xlpm._errChk, _xlpm._rtn)
   )
 )($A$1)</f>
-        <v>D:\USBC Backup\_RXL\Development\LAMBDA\</v>
+        <v>E:\Work\_RXL\Development\LAMBDA\</v>
       </c>
       <c r="D43" s="31"/>
       <c r="E43" s="31"/>
@@ -4206,7 +4209,7 @@
       <c r="L43" s="31"/>
       <c r="M43" s="32"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(C43)</f>
         <v>= LAMBDA(cell_ref,[remove_last_char],[inc_file_name],
@@ -4247,270 +4250,270 @@
 )($A$1)</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" s="17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="36" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="36" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" s="36" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="36" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" s="17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" s="17" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" s="36" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" s="36" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" s="17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" s="16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C79" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" s="17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" s="36" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" s="36" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" s="36" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" s="36" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" s="36" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" s="16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" s="36" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" s="36" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" s="16" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" s="17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C94" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C97" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C98" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B101" s="21" t="s">
         <v>34</v>
       </c>
@@ -4536,7 +4539,7 @@
       <c r="V101" s="20"/>
       <c r="W101" s="20"/>
     </row>
-    <row r="103" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C103" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="C103" ca="1" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.cell_ref,_xlop.remove_last_char,_xlop.inc_file_name,
   _xlfn.LET(
@@ -4578,7 +4581,7 @@
     IF(_xlpm._errChk &lt;&gt; "", _xlpm._errChk, _xlpm._rtn)
   )
 )($A$1)</f>
-        <v>D:\USBC Backup\_RXL\Development\LAMBDA\</v>
+        <v>E:\Work\_RXL\Development\LAMBDA\</v>
       </c>
       <c r="D103" s="31"/>
       <c r="E103" s="31"/>
@@ -4591,7 +4594,7 @@
       <c r="L103" s="31"/>
       <c r="M103" s="32"/>
     </row>
-    <row r="104" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C104" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(C103)</f>
         <v>= LAMBDA(cell_ref,[remove_last_char],[inc_file_name],
@@ -4636,325 +4639,325 @@
 )($A$1)</v>
       </c>
     </row>
-    <row r="105" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C105" s="7"/>
     </row>
-    <row r="106" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B106" s="7"/>
       <c r="C106" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B107" s="7"/>
       <c r="C107" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="108" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B108" s="7"/>
       <c r="C108" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B109" s="7"/>
       <c r="C109" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B110" s="7"/>
       <c r="C110" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B111" s="7"/>
       <c r="C111" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B112" s="7"/>
       <c r="C112" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" s="7"/>
       <c r="C113" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" s="7"/>
       <c r="C114" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115" s="7"/>
       <c r="C115" s="17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" s="7"/>
       <c r="C116" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117" s="7"/>
       <c r="C117" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" s="7"/>
       <c r="C118" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119" s="7"/>
       <c r="C119" s="36" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B120" s="7"/>
       <c r="C120" s="36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121" s="7"/>
       <c r="C121" s="36" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122" s="7"/>
       <c r="C122" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" s="7"/>
       <c r="C123" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" s="7"/>
       <c r="C124" s="36" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C125" s="36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C126" s="36" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C127" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C128" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C129" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C130" s="16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C131" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C132" s="16" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C133" s="17" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C134" s="17" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C135" s="17" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C136" s="17" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C137" s="16" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C138" s="17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C139" s="17" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C140" s="36" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C141" s="36" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C142" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C143" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C144" s="17" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C145" s="16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C146" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C147" s="17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C148" s="36" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C149" s="36" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C150" s="36" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151" s="36" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152" s="36" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C153" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C154" s="16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C155" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C156" s="36" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C157" s="36" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C158" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C159" s="16" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C160" s="17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C161" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C162" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C164" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C165" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="167" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="168" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="168" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B168" s="9" t="s">
         <v>3</v>
       </c>
@@ -4980,17 +4983,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="4.33203125" customWidth="1"/>
+    <col min="1" max="3" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="2:18" s="18" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="19">
         <f xml:space="preserve"> MAX(B$1:B1) + 1</f>
         <v>1</v>
@@ -4999,7 +5002,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="33" t="s">
         <v>51</v>
       </c>
@@ -5020,7 +5023,7 @@
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D6" s="28" t="s">
         <v>49</v>
       </c>
@@ -5028,7 +5031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D7" s="28" t="s">
         <v>48</v>
       </c>
@@ -5036,7 +5039,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D8" s="28" t="s">
         <v>111</v>
       </c>
@@ -5044,12 +5047,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C10" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D11" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1" xml:space="preserve"> RXL_SheetName($A$1)</f>
         <v>Demo</v>
@@ -5062,18 +5065,18 @@
       <c r="J11" s="31"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D12" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(D11)</f>
         <v>= RXL_SheetName($A$1)</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C14" s="30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D15" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="D15" ca="1" xml:space="preserve"> RXL_SheetName(Lookups!$A$1)</f>
         <v>Lookups</v>
@@ -5086,13 +5089,13 @@
       <c r="J15" s="31"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D16" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(D15)</f>
         <v>= RXL_SheetName(Lookups!$A$1)</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
         <v>106</v>
       </c>
@@ -5113,7 +5116,7 @@
       <c r="Q19" s="29"/>
       <c r="R19" s="29"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D21" s="28" t="s">
         <v>49</v>
       </c>
@@ -5121,7 +5124,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D22" s="28" t="s">
         <v>48</v>
       </c>
@@ -5129,7 +5132,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D23" s="28" t="s">
         <v>111</v>
       </c>
@@ -5137,12 +5140,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C25" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D26" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="D26" ca="1" xml:space="preserve"> RXL_WorkbookName($A$1)</f>
         <v>RXL_WbInfo.xlsx</v>
@@ -5155,18 +5158,18 @@
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D27" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(D26)</f>
         <v>= RXL_WorkbookName($A$1)</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C29" s="30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D30" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="D30" ca="1" xml:space="preserve"> RXL_WorkbookName(Lookups!$A$1)</f>
         <v>RXL_WbInfo.xlsx</v>
@@ -5179,18 +5182,18 @@
       <c r="J30" s="31"/>
       <c r="K30" s="32"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D31" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(D30)</f>
         <v>= RXL_WorkbookName(Lookups!$A$1)</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="30" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D34" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="D34" ca="1" xml:space="preserve"> RXL_WorkbookName($A$1, FALSE)</f>
         <v>RXL_WbInfo.xlsx</v>
@@ -5203,18 +5206,18 @@
       <c r="J34" s="31"/>
       <c r="K34" s="32"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D35" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(D34)</f>
         <v>= RXL_WorkbookName($A$1, FALSE)</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C37" s="30" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D38" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="D38" ca="1" xml:space="preserve"> RXL_WorkbookName($A$1, TRUE)</f>
         <v>RXL_WbInfo</v>
@@ -5227,13 +5230,13 @@
       <c r="J38" s="31"/>
       <c r="K38" s="32"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D39" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(D38)</f>
         <v>= RXL_WorkbookName($A$1, TRUE)</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B42" s="33" t="s">
         <v>176</v>
       </c>
@@ -5254,7 +5257,7 @@
       <c r="Q42" s="29"/>
       <c r="R42" s="29"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D44" s="28" t="s">
         <v>49</v>
       </c>
@@ -5262,7 +5265,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D45" s="28" t="s">
         <v>48</v>
       </c>
@@ -5270,7 +5273,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D46" s="28" t="s">
         <v>111</v>
       </c>
@@ -5278,15 +5281,15 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D49" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="D49" ca="1" xml:space="preserve"> RXL_FilePath($A$1)</f>
-        <v>D:\USBC Backup\_RXL\Development\LAMBDA\</v>
+        <v>E:\Work\_RXL\Development\LAMBDA\</v>
       </c>
       <c r="E49" s="31"/>
       <c r="F49" s="31"/>
@@ -5299,21 +5302,21 @@
       <c r="M49" s="31"/>
       <c r="N49" s="32"/>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D50" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(D49)</f>
         <v>= RXL_FilePath($A$1)</v>
       </c>
     </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D53" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="D53" ca="1" xml:space="preserve"> RXL_FilePath(Lookups!$A$1)</f>
-        <v>D:\USBC Backup\_RXL\Development\LAMBDA\</v>
+        <v>E:\Work\_RXL\Development\LAMBDA\</v>
       </c>
       <c r="E53" s="31"/>
       <c r="F53" s="31"/>
@@ -5326,21 +5329,21 @@
       <c r="M53" s="31"/>
       <c r="N53" s="32"/>
     </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D54" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(D53)</f>
         <v>= RXL_FilePath(Lookups!$A$1)</v>
       </c>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="30" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D57" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="D57" ca="1" xml:space="preserve"> RXL_FilePath($A$1, FALSE)</f>
-        <v>D:\USBC Backup\_RXL\Development\LAMBDA\</v>
+        <v>E:\Work\_RXL\Development\LAMBDA\</v>
       </c>
       <c r="E57" s="31"/>
       <c r="F57" s="31"/>
@@ -5353,21 +5356,21 @@
       <c r="M57" s="31"/>
       <c r="N57" s="32"/>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D58" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(D57)</f>
         <v>= RXL_FilePath($A$1, FALSE)</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="30" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D61" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="D61" ca="1" xml:space="preserve"> RXL_FilePath($A$1, TRUE)</f>
-        <v>D:\USBC Backup\_RXL\Development\LAMBDA</v>
+        <v>E:\Work\_RXL\Development\LAMBDA</v>
       </c>
       <c r="E61" s="31"/>
       <c r="F61" s="31"/>
@@ -5380,21 +5383,21 @@
       <c r="M61" s="31"/>
       <c r="N61" s="32"/>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D62" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(D61)</f>
         <v>= RXL_FilePath($A$1, TRUE)</v>
       </c>
     </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="30" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D65" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="D65" ca="1" xml:space="preserve"> RXL_FilePath($A$1, , TRUE)</f>
-        <v>D:\USBC Backup\_RXL\Development\LAMBDA\RXL_WbInfo.xlsx</v>
+        <v>E:\Work\_RXL\Development\LAMBDA\RXL_WbInfo.xlsx</v>
       </c>
       <c r="E65" s="31"/>
       <c r="F65" s="31"/>
@@ -5407,14 +5410,14 @@
       <c r="M65" s="31"/>
       <c r="N65" s="32"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D66" s="6" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(D65)</f>
         <v>= RXL_FilePath($A$1, , TRUE)</v>
       </c>
     </row>
-    <row r="68" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="69" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="9" t="s">
         <v>3</v>
       </c>
@@ -5440,17 +5443,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.33203125" customWidth="1"/>
+    <col min="1" max="2" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -5458,7 +5461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>0</v>
       </c>
@@ -5469,7 +5472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -5477,7 +5480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>0</v>
       </c>
@@ -5488,8 +5491,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>3</v>
       </c>
